--- a/Terminators/Terminators.xlsx
+++ b/Terminators/Terminators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/Terminators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79163C59-D5B2-3B4A-9CD9-A87DF615B76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8A452-BF0B-CA47-B8F2-FE4EE0464A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30880" yWindow="-1560" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="7560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7639" uniqueCount="7563">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22783,6 +22783,15 @@
   </si>
   <si>
     <t>BBa_B0015, BBa_B0010, BBa_B0012, BBa_B1006_T_U10, rnpB_T1, rpoC_T</t>
+  </si>
+  <si>
+    <t>STOP_MC</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>To make the stop codon when placed after CDS_TT_OH</t>
   </si>
 </sst>
 </file>
@@ -23654,8 +23663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24301,9 +24310,15 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="18" t="s">
+        <v>7560</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>7562</v>
+      </c>
       <c r="D24" s="21"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -24318,9 +24333,11 @@
       </c>
       <c r="L24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>7561</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="18"/>
@@ -25628,7 +25645,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -26135,13 +26152,15 @@
       <c r="G14" s="22" t="s">
         <v>7555</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" t="s">
+        <v>7560</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>7559</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="J14" s="34" t="s">
         <v>7556</v>
       </c>
-      <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>

--- a/Terminators/Terminators.xlsx
+++ b/Terminators/Terminators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/Terminators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8A452-BF0B-CA47-B8F2-FE4EE0464A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD5CA9-0399-A54A-9801-5A382C575AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30880" yWindow="-1560" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7639" uniqueCount="7563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7646" uniqueCount="7566">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22782,9 +22782,6 @@
     <t>L0 Terminator 3' Flanking Region</t>
   </si>
   <si>
-    <t>BBa_B0015, BBa_B0010, BBa_B0012, BBa_B1006_T_U10, rnpB_T1, rpoC_T</t>
-  </si>
-  <si>
     <t>STOP_MC</t>
   </si>
   <si>
@@ -22792,13 +22789,25 @@
   </si>
   <si>
     <t>To make the stop codon when placed after CDS_TT_OH</t>
+  </si>
+  <si>
+    <t>B1006</t>
+  </si>
+  <si>
+    <t>BBa_B1006</t>
+  </si>
+  <si>
+    <t>Terminator (artificial, large, %T~&gt;90)</t>
+  </si>
+  <si>
+    <t>BBa_B0015, BBa_B0010, BBa_B0012, BBa_B1006_T_U10, rnpB_T1, rpoC_T, B1006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -22996,8 +23005,14 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23016,8 +23031,14 @@
         <bgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -23139,12 +23160,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9D08E"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9D08E"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23207,6 +23243,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23663,8 +23700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24311,13 +24348,13 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>7560</v>
+        <v>7559</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>7562</v>
+        <v>7561</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="18"/>
@@ -24336,19 +24373,33 @@
         <v>2</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>7561</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="18" t="s">
+        <v>7563</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>7564</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="F25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>7562</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>7417</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>7419</v>
+      </c>
       <c r="J25" s="18" t="b">
         <v>0</v>
       </c>
@@ -25645,7 +25696,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -26153,10 +26204,10 @@
         <v>7555</v>
       </c>
       <c r="H14" t="s">
-        <v>7560</v>
+        <v>7559</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>7559</v>
+        <v>7565</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>7556</v>

--- a/Terminators/Terminators.xlsx
+++ b/Terminators/Terminators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/Terminators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD5CA9-0399-A54A-9801-5A382C575AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1460ABE-3352-FC43-B0EC-54C4DE58E9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30880" yWindow="-1560" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35820" yWindow="-1680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ontology Terms'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7646" uniqueCount="7566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="7569">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22801,6 +22801,15 @@
   </si>
   <si>
     <t>BBa_B0015, BBa_B0010, BBa_B0012, BBa_B1006_T_U10, rnpB_T1, rpoC_T, B1006</t>
+  </si>
+  <si>
+    <t>D2001</t>
+  </si>
+  <si>
+    <t>D2002</t>
+  </si>
+  <si>
+    <t>Extra nonsense bases for synthesis</t>
   </si>
 </sst>
 </file>
@@ -23238,12 +23247,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23700,8 +23709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23771,12 +23780,12 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="46" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -24391,7 +24400,7 @@
       <c r="F25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="51" t="s">
         <v>7562</v>
       </c>
       <c r="H25" s="18" t="s">
@@ -24413,14 +24422,26 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="18" t="s">
+        <v>7566</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>7568</v>
+      </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="F26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>7566</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>7417</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18" t="b">
         <v>0</v>
@@ -24435,14 +24456,26 @@
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="18" t="s">
+        <v>7567</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>7568</v>
+      </c>
       <c r="D27" s="21"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="F27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>7567</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>7417</v>
+      </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18" t="b">
         <v>0</v>
@@ -25695,8 +25728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -26200,20 +26233,24 @@
         <v>7553</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="22" t="s">
+      <c r="G14" t="s">
+        <v>7566</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>7555</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>7559</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="J14" s="18" t="s">
         <v>7565</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="K14" s="34" t="s">
         <v>7556</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="L14" s="18" t="s">
+        <v>7567</v>
+      </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>

--- a/Terminators/Terminators.xlsx
+++ b/Terminators/Terminators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/Terminators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1460ABE-3352-FC43-B0EC-54C4DE58E9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E2C4FA-C049-1241-9BB0-98212BE060F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35820" yWindow="-1680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="500" windowWidth="23260" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ontology Terms'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="7569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7683" uniqueCount="7574">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22800,9 +22800,6 @@
     <t>Terminator (artificial, large, %T~&gt;90)</t>
   </si>
   <si>
-    <t>BBa_B0015, BBa_B0010, BBa_B0012, BBa_B1006_T_U10, rnpB_T1, rpoC_T, B1006</t>
-  </si>
-  <si>
     <t>D2001</t>
   </si>
   <si>
@@ -22810,6 +22807,24 @@
   </si>
   <si>
     <t>Extra nonsense bases for synthesis</t>
+  </si>
+  <si>
+    <t>BBa_B0010, rpoC_T</t>
+  </si>
+  <si>
+    <t>BBa_B0015, BBa_B0012, BBa_B1006_T_U10, rnpB_T1, B1006</t>
+  </si>
+  <si>
+    <t>Unable to build</t>
+  </si>
+  <si>
+    <t>Terminators in pSB1C3</t>
+  </si>
+  <si>
+    <t>Constructs belonged to original build plan, but unable to synthesize as clonal product by TWIST</t>
+  </si>
+  <si>
+    <t>Synthesized as linear fragments and cloned into pSB1C3</t>
   </si>
 </sst>
 </file>
@@ -23189,7 +23204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23248,6 +23263,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -23709,8 +23725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23780,12 +23796,12 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="46" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -24423,13 +24439,13 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>7566</v>
+        <v>7565</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>1356</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>7568</v>
+        <v>7567</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -24437,7 +24453,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>7566</v>
+        <v>7565</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>7417</v>
@@ -24457,13 +24473,13 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>7567</v>
+        <v>7566</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>1356</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>7568</v>
+        <v>7567</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="18"/>
@@ -24471,7 +24487,7 @@
         <v>42</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>7567</v>
+        <v>7566</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>7417</v>
@@ -24490,20 +24506,30 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="43" t="s">
+        <v>7501</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>4473</v>
+      </c>
       <c r="C28" s="18"/>
       <c r="D28" s="21"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>7501</v>
+      </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="18" t="s">
+        <v>7419</v>
+      </c>
       <c r="J28" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K28" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="15">
         <f t="shared" si="0"/>
@@ -25728,8 +25754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -26234,7 +26260,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" t="s">
-        <v>7566</v>
+        <v>7565</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>7555</v>
@@ -26242,14 +26268,14 @@
       <c r="I14" t="s">
         <v>7559</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>7565</v>
+      <c r="J14" s="43" t="s">
+        <v>7569</v>
       </c>
       <c r="K14" s="34" t="s">
         <v>7556</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>7567</v>
+        <v>7566</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -26264,21 +26290,39 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="16">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:26" ht="17">
+      <c r="A15" s="52" t="s">
+        <v>7570</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>7572</v>
+      </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>7553</v>
+      </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="18"/>
+      <c r="G15" s="22" t="s">
+        <v>7565</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>7555</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>7559</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>7568</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>7556</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>7566</v>
+      </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -26293,20 +26337,38 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="52" t="s">
+        <v>7571</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>7573</v>
+      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>7501</v>
+      </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="G16" s="22" t="s">
+        <v>7565</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>7555</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>7559</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>7547</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>7556</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>7566</v>
+      </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>

--- a/Terminators/Terminators.xlsx
+++ b/Terminators/Terminators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/Terminators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E2C4FA-C049-1241-9BB0-98212BE060F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E704C6AA-6DE8-E545-90F5-8498DFE0ECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="500" windowWidth="23260" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="23260" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -22809,12 +22809,6 @@
     <t>Extra nonsense bases for synthesis</t>
   </si>
   <si>
-    <t>BBa_B0010, rpoC_T</t>
-  </si>
-  <si>
-    <t>BBa_B0015, BBa_B0012, BBa_B1006_T_U10, rnpB_T1, B1006</t>
-  </si>
-  <si>
     <t>Unable to build</t>
   </si>
   <si>
@@ -22825,6 +22819,12 @@
   </si>
   <si>
     <t>Synthesized as linear fragments and cloned into pSB1C3</t>
+  </si>
+  <si>
+    <t>BBa_B0015, BBa_B0012, rnpB_T1</t>
+  </si>
+  <si>
+    <t>BBa_B0010, rpoC_T, BBa_B1006_T_U10, B1006</t>
   </si>
 </sst>
 </file>
@@ -23725,7 +23725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -25754,8 +25754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -26269,7 +26269,7 @@
         <v>7559</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>7569</v>
+        <v>7572</v>
       </c>
       <c r="K14" s="34" t="s">
         <v>7556</v>
@@ -26292,10 +26292,10 @@
     </row>
     <row r="15" spans="1:26" ht="17">
       <c r="A15" s="52" t="s">
+        <v>7568</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>7570</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>7572</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="b">
@@ -26315,7 +26315,7 @@
         <v>7559</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>7568</v>
+        <v>7573</v>
       </c>
       <c r="K15" s="34" t="s">
         <v>7556</v>
@@ -26338,10 +26338,10 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="52" t="s">
+        <v>7569</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>7571</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>7573</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="22" t="b">
